--- a/output/KAIRÓS_32318799000155.xlsx
+++ b/output/KAIRÓS_32318799000155.xlsx
@@ -614,10 +614,10 @@
         <v>44165</v>
       </c>
       <c r="B21">
-        <v>0.04595286629999995</v>
+        <v>0.04312466339999999</v>
       </c>
       <c r="C21">
-        <v>0.03437757416885234</v>
+        <v>0.03158067026503875</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAIRÓS_32318799000155.xlsx
+++ b/output/KAIRÓS_32318799000155.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAIRÓS MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43585</v>
       </c>
@@ -411,213 +405,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
       <c r="B3">
         <v>0.01372062680000008</v>
       </c>
-      <c r="C3">
-        <v>0.01372062680000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43646</v>
       </c>
       <c r="B4">
-        <v>0.0215913445</v>
-      </c>
-      <c r="C4">
         <v>0.007764188171691222</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43677</v>
       </c>
       <c r="B5">
-        <v>0.02255801580000005</v>
-      </c>
-      <c r="C5">
         <v>0.0009462406912552623</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43708</v>
       </c>
       <c r="B6">
-        <v>0.0138189955000001</v>
-      </c>
-      <c r="C6">
         <v>-0.008546234213579473</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43738</v>
       </c>
       <c r="B7">
-        <v>0.01258038299999997</v>
-      </c>
-      <c r="C7">
         <v>-0.001221729426552409</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43769</v>
       </c>
       <c r="B8">
-        <v>0.03305286509999994</v>
-      </c>
-      <c r="C8">
         <v>0.02021813027756436</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43799</v>
       </c>
       <c r="B9">
-        <v>0.0230864677</v>
-      </c>
-      <c r="C9">
         <v>-0.00964751924775431</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43830</v>
       </c>
       <c r="B10">
-        <v>0.05638444179999991</v>
-      </c>
-      <c r="C10">
         <v>0.03254658833955371</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43861</v>
       </c>
       <c r="B11">
-        <v>0.03985253839999991</v>
-      </c>
-      <c r="C11">
         <v>-0.015649514273261</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43890</v>
       </c>
       <c r="B12">
-        <v>0.02523515020000011</v>
-      </c>
-      <c r="C12">
         <v>-0.01405717412825791</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43921</v>
       </c>
       <c r="B13">
-        <v>-0.01206277940000011</v>
-      </c>
-      <c r="C13">
         <v>-0.0363798779165192</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43951</v>
       </c>
       <c r="B14">
-        <v>0.001250995799999988</v>
-      </c>
-      <c r="C14">
         <v>0.01347633728377429</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43982</v>
       </c>
       <c r="B15">
-        <v>0.01287127020000001</v>
-      </c>
-      <c r="C15">
         <v>0.01160575564842792</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44012</v>
       </c>
       <c r="B16">
-        <v>0.02156143679999989</v>
-      </c>
-      <c r="C16">
         <v>0.008579734518764592</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>44043</v>
       </c>
       <c r="B17">
-        <v>0.05251812259999999</v>
-      </c>
-      <c r="C17">
         <v>0.03030330304653117</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>44074</v>
       </c>
       <c r="B18">
-        <v>0.06239331050000008</v>
-      </c>
-      <c r="C18">
         <v>0.009382439777479323</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>44104</v>
       </c>
       <c r="B19">
-        <v>0.0245178746000001</v>
-      </c>
-      <c r="C19">
         <v>-0.0356510489341979</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>44135</v>
       </c>
       <c r="B20">
-        <v>0.01119058689999997</v>
-      </c>
-      <c r="C20">
         <v>-0.01300835059144623</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>44165</v>
       </c>
       <c r="B21">
-        <v>0.04312466339999999</v>
-      </c>
-      <c r="C21">
-        <v>0.03158067026503875</v>
+        <v>0.02740767067953409</v>
       </c>
     </row>
   </sheetData>
